--- a/cypress/fixtures/Fal6-Files/FAL6-With-Spl-characters.xlsx
+++ b/cypress/fixtures/Fal6-Files/FAL6-With-Spl-characters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jayanthi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeoffice\NMSWTemp\nmsw-ui\cypress\fixtures\Fal6-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF2EEA6-C7DC-4D1B-9BB0-90D40138159A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC6894-61C9-45AB-B985-D4421712DC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="600">
   <si>
     <t xml:space="preserve">Your reference (optional). 
 For example, vessel name or voyage number
@@ -298,9 +298,6 @@
     <t>12/12/1961</t>
   </si>
   <si>
-    <t>Woolrich</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adam, Patrick            </t>
   </si>
   <si>
@@ -413,9 +410,6 @@
   </si>
   <si>
     <t xml:space="preserve">White      </t>
-  </si>
-  <si>
-    <t>Alison Isabella</t>
   </si>
   <si>
     <t>12/12/1981</t>
@@ -2019,6 +2013,21 @@
   </si>
   <si>
     <t>0123456729</t>
+  </si>
+  <si>
+    <t>Woolrich'</t>
+  </si>
+  <si>
+    <t>Alison'Isabella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aileen.Alan          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilkin:Alison          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within'shaw </t>
   </si>
 </sst>
 </file>
@@ -2416,21 +2425,6 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2538,6 +2532,21 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2923,2937 +2932,2937 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P981"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="19.81640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="6" customWidth="1"/>
-    <col min="6" max="11" width="19.81640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="20.08984375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="19.81640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="22.453125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.54296875" style="6" hidden="1"/>
+    <col min="1" max="4" width="19.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="1" customWidth="1"/>
+    <col min="6" max="11" width="19.81640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.54296875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="93" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="75.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="19" customFormat="1" ht="201.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:15" s="14" customFormat="1" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="16">
         <v>123456710</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="19">
         <v>4117</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <v>123456711</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="19">
         <v>7025</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="16">
         <v>123456712</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="H7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="I7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="19">
+        <v>7025</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="16">
+        <v>123456713</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="F8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="24">
-        <v>7025</v>
-      </c>
-      <c r="M7" s="20" t="s">
+      <c r="L8" s="19">
+        <v>3058</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O8" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="21">
-        <v>123456713</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="20" t="s">
+      <c r="D9" s="16">
+        <v>123456714</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="19">
+        <v>3058</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="16">
+        <v>123456715</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="19">
+        <v>4018</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="16">
+        <v>123456716</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="19">
+        <v>4018</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="16">
+        <v>123456717</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="23" t="s">
+      <c r="H12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="24">
-        <v>3058</v>
-      </c>
-      <c r="M8" s="20" t="s">
+      <c r="L12" s="19">
+        <v>5040</v>
+      </c>
+      <c r="M12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O12" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="21">
-        <v>123456714</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="23" t="s">
+      <c r="D13" s="16">
+        <v>123456718</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="24">
-        <v>3058</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="L13" s="19">
+        <v>5040</v>
+      </c>
+      <c r="M13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O13" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="21">
-        <v>123456715</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="23" t="s">
+      <c r="D14" s="16">
+        <v>123456719</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="24">
-        <v>4018</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L14" s="19">
+        <v>3055</v>
+      </c>
+      <c r="M14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O14" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="21">
-        <v>123456716</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="D15" s="16">
+        <v>123456720</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="G15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="24">
-        <v>4018</v>
-      </c>
-      <c r="M11" s="20" t="s">
+      <c r="L15" s="19">
+        <v>3024</v>
+      </c>
+      <c r="M15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O15" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="21">
-        <v>123456717</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="D16" s="16">
+        <v>123456721</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="20" t="s">
+      <c r="G16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="19">
+        <v>3024</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="16">
+        <v>123456722</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H17" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="24">
-        <v>5040</v>
-      </c>
-      <c r="M12" s="20" t="s">
+      <c r="L17" s="19">
+        <v>9002</v>
+      </c>
+      <c r="M17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O17" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="21">
-        <v>123456718</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="23" t="s">
+      <c r="D18" s="16">
+        <v>123456723</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="24">
-        <v>5040</v>
-      </c>
-      <c r="M13" s="20" t="s">
+      <c r="L18" s="19">
+        <v>9002</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O18" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="21">
-        <v>123456719</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="23" t="s">
+      <c r="D19" s="16">
+        <v>123456724</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="24">
-        <v>3055</v>
-      </c>
-      <c r="M14" s="20" t="s">
+      <c r="L19" s="19">
+        <v>8007</v>
+      </c>
+      <c r="M19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O19" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="21">
-        <v>123456720</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="20" t="s">
+      <c r="D20" s="16">
+        <v>123456725</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="19">
+        <v>4101</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="16">
+        <v>123456726</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="19">
+        <v>5031</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="16">
+        <v>123456727</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="19">
+        <v>4101</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="16">
+        <v>123456728</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="23" t="s">
+      <c r="H23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="24">
-        <v>3024</v>
-      </c>
-      <c r="M15" s="20" t="s">
+      <c r="L23" s="19">
+        <v>5031</v>
+      </c>
+      <c r="M23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="O23" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="21">
-        <v>123456721</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="23" t="s">
+      <c r="D24" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="24">
-        <v>3024</v>
-      </c>
-      <c r="M16" s="20" t="s">
+      <c r="L24" s="19">
+        <v>7033</v>
+      </c>
+      <c r="M24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O24" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+    <row r="25" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="21">
-        <v>123456722</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="D25" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="23" t="s">
+      <c r="H25" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="24">
-        <v>9002</v>
-      </c>
-      <c r="M17" s="20" t="s">
+      <c r="L25" s="19">
+        <v>5060</v>
+      </c>
+      <c r="M25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O25" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+    <row r="26" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="21">
-        <v>123456723</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="23" t="s">
+      <c r="D26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="24">
-        <v>9002</v>
-      </c>
-      <c r="M18" s="20" t="s">
+      <c r="L26" s="19">
+        <v>5060</v>
+      </c>
+      <c r="M26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="O26" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="21">
-        <v>123456724</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="24">
-        <v>8007</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="21">
-        <v>123456725</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L20" s="24">
-        <v>4101</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="21">
-        <v>123456726</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="24">
-        <v>5031</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="21">
-        <v>123456727</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="24">
-        <v>4101</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="21">
-        <v>123456728</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="24">
-        <v>5031</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="24">
-        <v>7033</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="24">
-        <v>5060</v>
-      </c>
-      <c r="M25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="24">
-        <v>5060</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="27" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
     </row>
     <row r="28" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
     </row>
     <row r="30" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
     </row>
     <row r="32" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
     </row>
     <row r="33" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
     </row>
     <row r="34" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
     </row>
     <row r="35" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
     </row>
     <row r="36" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
     </row>
     <row r="37" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
     </row>
     <row r="38" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
     </row>
     <row r="39" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
     </row>
     <row r="40" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
     </row>
     <row r="41" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
     </row>
     <row r="42" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
     </row>
     <row r="43" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
     </row>
     <row r="44" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
     </row>
     <row r="45" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
     </row>
     <row r="46" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-    </row>
-    <row r="47" spans="1:15" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:15" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" spans="1:1" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" spans="1:1" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" spans="1:1" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" spans="1:1" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" spans="1:1" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" spans="1:1" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" spans="1:1" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" spans="1:1" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" spans="1:1" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" spans="1:1" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" spans="1:1" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" spans="1:1" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" spans="1:1" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" spans="1:1" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" spans="1:1" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" spans="1:1" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" spans="1:1" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" spans="1:1" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="730" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A730" s="27"/>
+      <c r="A730" s="22"/>
     </row>
     <row r="731" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A731" s="27"/>
+      <c r="A731" s="22"/>
     </row>
     <row r="732" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A732" s="27"/>
+      <c r="A732" s="22"/>
     </row>
     <row r="733" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A733" s="27"/>
+      <c r="A733" s="22"/>
     </row>
     <row r="734" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A734" s="27"/>
+      <c r="A734" s="22"/>
     </row>
     <row r="735" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A735" s="27"/>
+      <c r="A735" s="22"/>
     </row>
     <row r="736" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A736" s="27"/>
+      <c r="A736" s="22"/>
     </row>
     <row r="737" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A737" s="27"/>
+      <c r="A737" s="22"/>
     </row>
     <row r="738" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A738" s="27"/>
+      <c r="A738" s="22"/>
     </row>
     <row r="739" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A739" s="27"/>
+      <c r="A739" s="22"/>
     </row>
     <row r="740" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A740" s="27"/>
+      <c r="A740" s="22"/>
     </row>
     <row r="741" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A741" s="27"/>
+      <c r="A741" s="22"/>
     </row>
     <row r="742" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A742" s="27"/>
+      <c r="A742" s="22"/>
     </row>
     <row r="743" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A743" s="27"/>
+      <c r="A743" s="22"/>
     </row>
     <row r="744" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A744" s="27"/>
+      <c r="A744" s="22"/>
     </row>
     <row r="745" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A745" s="27"/>
+      <c r="A745" s="22"/>
     </row>
     <row r="746" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A746" s="27"/>
+      <c r="A746" s="22"/>
     </row>
     <row r="747" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A747" s="27"/>
+      <c r="A747" s="22"/>
     </row>
     <row r="748" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A748" s="27"/>
+      <c r="A748" s="22"/>
     </row>
     <row r="749" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A749" s="27"/>
+      <c r="A749" s="22"/>
     </row>
     <row r="750" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A750" s="27"/>
+      <c r="A750" s="22"/>
     </row>
     <row r="751" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A751" s="27"/>
+      <c r="A751" s="22"/>
     </row>
     <row r="752" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A752" s="27"/>
+      <c r="A752" s="22"/>
     </row>
     <row r="753" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A753" s="27"/>
+      <c r="A753" s="22"/>
     </row>
     <row r="754" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A754" s="27"/>
+      <c r="A754" s="22"/>
     </row>
     <row r="755" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A755" s="27"/>
+      <c r="A755" s="22"/>
     </row>
     <row r="756" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A756" s="27"/>
+      <c r="A756" s="22"/>
     </row>
     <row r="757" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A757" s="27"/>
+      <c r="A757" s="22"/>
     </row>
     <row r="758" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A758" s="27"/>
+      <c r="A758" s="22"/>
     </row>
     <row r="759" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A759" s="27"/>
+      <c r="A759" s="22"/>
     </row>
     <row r="760" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A760" s="27"/>
+      <c r="A760" s="22"/>
     </row>
     <row r="761" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A761" s="27"/>
+      <c r="A761" s="22"/>
     </row>
     <row r="762" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A762" s="27"/>
+      <c r="A762" s="22"/>
     </row>
     <row r="763" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A763" s="27"/>
+      <c r="A763" s="22"/>
     </row>
     <row r="764" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A764" s="27"/>
+      <c r="A764" s="22"/>
     </row>
     <row r="765" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A765" s="27"/>
+      <c r="A765" s="22"/>
     </row>
     <row r="766" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A766" s="27"/>
+      <c r="A766" s="22"/>
     </row>
     <row r="767" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A767" s="27"/>
+      <c r="A767" s="22"/>
     </row>
     <row r="768" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A768" s="27"/>
+      <c r="A768" s="22"/>
     </row>
     <row r="769" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A769" s="27"/>
+      <c r="A769" s="22"/>
     </row>
     <row r="770" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A770" s="27"/>
+      <c r="A770" s="22"/>
     </row>
     <row r="771" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A771" s="27"/>
+      <c r="A771" s="22"/>
     </row>
     <row r="772" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A772" s="27"/>
+      <c r="A772" s="22"/>
     </row>
     <row r="773" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A773" s="27"/>
+      <c r="A773" s="22"/>
     </row>
     <row r="774" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A774" s="27"/>
+      <c r="A774" s="22"/>
     </row>
     <row r="775" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A775" s="27"/>
+      <c r="A775" s="22"/>
     </row>
     <row r="776" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A776" s="27"/>
+      <c r="A776" s="22"/>
     </row>
     <row r="777" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A777" s="27"/>
+      <c r="A777" s="22"/>
     </row>
     <row r="778" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A778" s="27"/>
+      <c r="A778" s="22"/>
     </row>
     <row r="779" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A779" s="27"/>
+      <c r="A779" s="22"/>
     </row>
     <row r="780" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A780" s="27"/>
+      <c r="A780" s="22"/>
     </row>
     <row r="781" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A781" s="27"/>
+      <c r="A781" s="22"/>
     </row>
     <row r="782" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A782" s="27"/>
+      <c r="A782" s="22"/>
     </row>
     <row r="783" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A783" s="27"/>
+      <c r="A783" s="22"/>
     </row>
     <row r="784" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A784" s="27"/>
+      <c r="A784" s="22"/>
     </row>
     <row r="785" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A785" s="27"/>
+      <c r="A785" s="22"/>
     </row>
     <row r="786" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A786" s="27"/>
+      <c r="A786" s="22"/>
     </row>
     <row r="787" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A787" s="27"/>
+      <c r="A787" s="22"/>
     </row>
     <row r="788" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A788" s="27"/>
+      <c r="A788" s="22"/>
     </row>
     <row r="789" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A789" s="27"/>
+      <c r="A789" s="22"/>
     </row>
     <row r="790" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A790" s="27"/>
+      <c r="A790" s="22"/>
     </row>
     <row r="791" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A791" s="27"/>
+      <c r="A791" s="22"/>
     </row>
     <row r="792" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A792" s="27"/>
+      <c r="A792" s="22"/>
     </row>
     <row r="793" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A793" s="27"/>
+      <c r="A793" s="22"/>
     </row>
     <row r="794" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A794" s="27"/>
+      <c r="A794" s="22"/>
     </row>
     <row r="795" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A795" s="27"/>
+      <c r="A795" s="22"/>
     </row>
     <row r="796" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A796" s="27"/>
+      <c r="A796" s="22"/>
     </row>
     <row r="797" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A797" s="27"/>
+      <c r="A797" s="22"/>
     </row>
     <row r="798" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A798" s="27"/>
+      <c r="A798" s="22"/>
     </row>
     <row r="799" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A799" s="27"/>
+      <c r="A799" s="22"/>
     </row>
     <row r="800" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A800" s="27"/>
+      <c r="A800" s="22"/>
     </row>
     <row r="801" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A801" s="27"/>
+      <c r="A801" s="22"/>
     </row>
     <row r="802" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A802" s="27"/>
+      <c r="A802" s="22"/>
     </row>
     <row r="803" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A803" s="27"/>
+      <c r="A803" s="22"/>
     </row>
     <row r="804" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A804" s="27"/>
+      <c r="A804" s="22"/>
     </row>
     <row r="805" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A805" s="27"/>
+      <c r="A805" s="22"/>
     </row>
     <row r="806" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A806" s="27"/>
+      <c r="A806" s="22"/>
     </row>
     <row r="807" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A807" s="27"/>
+      <c r="A807" s="22"/>
     </row>
     <row r="808" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A808" s="27"/>
+      <c r="A808" s="22"/>
     </row>
     <row r="809" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A809" s="27"/>
+      <c r="A809" s="22"/>
     </row>
     <row r="810" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A810" s="27"/>
+      <c r="A810" s="22"/>
     </row>
     <row r="811" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A811" s="27"/>
+      <c r="A811" s="22"/>
     </row>
     <row r="812" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A812" s="27"/>
+      <c r="A812" s="22"/>
     </row>
     <row r="813" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A813" s="27"/>
+      <c r="A813" s="22"/>
     </row>
     <row r="814" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A814" s="27"/>
+      <c r="A814" s="22"/>
     </row>
     <row r="815" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A815" s="27"/>
+      <c r="A815" s="22"/>
     </row>
     <row r="816" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A816" s="27"/>
+      <c r="A816" s="22"/>
     </row>
     <row r="817" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A817" s="27"/>
+      <c r="A817" s="22"/>
     </row>
     <row r="818" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A818" s="27"/>
+      <c r="A818" s="22"/>
     </row>
     <row r="819" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A819" s="27"/>
+      <c r="A819" s="22"/>
     </row>
     <row r="820" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A820" s="27"/>
+      <c r="A820" s="22"/>
     </row>
     <row r="821" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A821" s="27"/>
+      <c r="A821" s="22"/>
     </row>
     <row r="822" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A822" s="27"/>
+      <c r="A822" s="22"/>
     </row>
     <row r="823" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A823" s="27"/>
+      <c r="A823" s="22"/>
     </row>
     <row r="824" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A824" s="27"/>
+      <c r="A824" s="22"/>
     </row>
     <row r="825" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A825" s="27"/>
+      <c r="A825" s="22"/>
     </row>
     <row r="826" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A826" s="27"/>
+      <c r="A826" s="22"/>
     </row>
     <row r="827" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A827" s="27"/>
+      <c r="A827" s="22"/>
     </row>
     <row r="828" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A828" s="27"/>
+      <c r="A828" s="22"/>
     </row>
     <row r="829" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A829" s="27"/>
+      <c r="A829" s="22"/>
     </row>
     <row r="830" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A830" s="27"/>
+      <c r="A830" s="22"/>
     </row>
     <row r="831" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A831" s="27"/>
+      <c r="A831" s="22"/>
     </row>
     <row r="832" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A832" s="27"/>
+      <c r="A832" s="22"/>
     </row>
     <row r="833" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A833" s="27"/>
+      <c r="A833" s="22"/>
     </row>
     <row r="834" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A834" s="27"/>
+      <c r="A834" s="22"/>
     </row>
     <row r="835" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A835" s="27"/>
+      <c r="A835" s="22"/>
     </row>
     <row r="836" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A836" s="27"/>
+      <c r="A836" s="22"/>
     </row>
     <row r="837" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A837" s="27"/>
+      <c r="A837" s="22"/>
     </row>
     <row r="838" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A838" s="27"/>
+      <c r="A838" s="22"/>
     </row>
     <row r="839" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A839" s="27"/>
+      <c r="A839" s="22"/>
     </row>
     <row r="840" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A840" s="27"/>
+      <c r="A840" s="22"/>
     </row>
     <row r="841" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A841" s="27"/>
+      <c r="A841" s="22"/>
     </row>
     <row r="842" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A842" s="27"/>
+      <c r="A842" s="22"/>
     </row>
     <row r="843" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A843" s="27"/>
+      <c r="A843" s="22"/>
     </row>
     <row r="844" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A844" s="27"/>
+      <c r="A844" s="22"/>
     </row>
     <row r="845" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A845" s="27"/>
+      <c r="A845" s="22"/>
     </row>
     <row r="846" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A846" s="27"/>
+      <c r="A846" s="22"/>
     </row>
     <row r="847" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A847" s="27"/>
+      <c r="A847" s="22"/>
     </row>
     <row r="848" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A848" s="27"/>
+      <c r="A848" s="22"/>
     </row>
     <row r="849" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A849" s="27"/>
+      <c r="A849" s="22"/>
     </row>
     <row r="850" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A850" s="27"/>
+      <c r="A850" s="22"/>
     </row>
     <row r="851" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A851" s="27"/>
+      <c r="A851" s="22"/>
     </row>
     <row r="852" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A852" s="27"/>
+      <c r="A852" s="22"/>
     </row>
     <row r="853" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A853" s="27"/>
+      <c r="A853" s="22"/>
     </row>
     <row r="854" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A854" s="27"/>
+      <c r="A854" s="22"/>
     </row>
     <row r="855" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A855" s="27"/>
+      <c r="A855" s="22"/>
     </row>
     <row r="856" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A856" s="27"/>
+      <c r="A856" s="22"/>
     </row>
     <row r="857" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A857" s="27"/>
+      <c r="A857" s="22"/>
     </row>
     <row r="858" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A858" s="27"/>
+      <c r="A858" s="22"/>
     </row>
     <row r="859" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A859" s="27"/>
+      <c r="A859" s="22"/>
     </row>
     <row r="860" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A860" s="27"/>
+      <c r="A860" s="22"/>
     </row>
     <row r="861" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A861" s="27"/>
+      <c r="A861" s="22"/>
     </row>
     <row r="862" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A862" s="27"/>
+      <c r="A862" s="22"/>
     </row>
     <row r="863" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A863" s="27"/>
+      <c r="A863" s="22"/>
     </row>
     <row r="864" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A864" s="27"/>
+      <c r="A864" s="22"/>
     </row>
     <row r="865" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A865" s="27"/>
+      <c r="A865" s="22"/>
     </row>
     <row r="866" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A866" s="27"/>
+      <c r="A866" s="22"/>
     </row>
     <row r="867" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A867" s="27"/>
+      <c r="A867" s="22"/>
     </row>
     <row r="868" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A868" s="27"/>
+      <c r="A868" s="22"/>
     </row>
     <row r="869" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A869" s="27"/>
+      <c r="A869" s="22"/>
     </row>
     <row r="870" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A870" s="27"/>
+      <c r="A870" s="22"/>
     </row>
     <row r="871" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A871" s="27"/>
+      <c r="A871" s="22"/>
     </row>
     <row r="872" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A872" s="27"/>
+      <c r="A872" s="22"/>
     </row>
     <row r="873" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A873" s="27"/>
+      <c r="A873" s="22"/>
     </row>
     <row r="874" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A874" s="27"/>
+      <c r="A874" s="22"/>
     </row>
     <row r="875" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A875" s="27"/>
+      <c r="A875" s="22"/>
     </row>
     <row r="876" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A876" s="27"/>
+      <c r="A876" s="22"/>
     </row>
     <row r="877" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A877" s="27"/>
+      <c r="A877" s="22"/>
     </row>
     <row r="878" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A878" s="27"/>
+      <c r="A878" s="22"/>
     </row>
     <row r="879" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A879" s="27"/>
+      <c r="A879" s="22"/>
     </row>
     <row r="880" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A880" s="27"/>
+      <c r="A880" s="22"/>
     </row>
     <row r="881" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A881" s="27"/>
+      <c r="A881" s="22"/>
     </row>
     <row r="882" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A882" s="27"/>
+      <c r="A882" s="22"/>
     </row>
     <row r="883" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A883" s="27"/>
+      <c r="A883" s="22"/>
     </row>
     <row r="884" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A884" s="27"/>
+      <c r="A884" s="22"/>
     </row>
     <row r="885" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A885" s="27"/>
+      <c r="A885" s="22"/>
     </row>
     <row r="886" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A886" s="27"/>
+      <c r="A886" s="22"/>
     </row>
     <row r="887" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A887" s="27"/>
+      <c r="A887" s="22"/>
     </row>
     <row r="888" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A888" s="27"/>
+      <c r="A888" s="22"/>
     </row>
     <row r="889" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A889" s="27"/>
+      <c r="A889" s="22"/>
     </row>
     <row r="890" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A890" s="27"/>
+      <c r="A890" s="22"/>
     </row>
     <row r="891" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A891" s="27"/>
+      <c r="A891" s="22"/>
     </row>
     <row r="892" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A892" s="27"/>
+      <c r="A892" s="22"/>
     </row>
     <row r="893" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A893" s="27"/>
+      <c r="A893" s="22"/>
     </row>
     <row r="894" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A894" s="27"/>
+      <c r="A894" s="22"/>
     </row>
     <row r="895" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A895" s="27"/>
+      <c r="A895" s="22"/>
     </row>
     <row r="896" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A896" s="27"/>
+      <c r="A896" s="22"/>
     </row>
     <row r="897" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A897" s="27"/>
+      <c r="A897" s="22"/>
     </row>
     <row r="898" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A898" s="27"/>
+      <c r="A898" s="22"/>
     </row>
     <row r="899" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A899" s="27"/>
+      <c r="A899" s="22"/>
     </row>
     <row r="900" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A900" s="27"/>
+      <c r="A900" s="22"/>
     </row>
     <row r="901" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A901" s="27"/>
+      <c r="A901" s="22"/>
     </row>
     <row r="902" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A902" s="27"/>
+      <c r="A902" s="22"/>
     </row>
     <row r="903" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A903" s="27"/>
+      <c r="A903" s="22"/>
     </row>
     <row r="904" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A904" s="27"/>
+      <c r="A904" s="22"/>
     </row>
     <row r="905" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A905" s="27"/>
+      <c r="A905" s="22"/>
     </row>
     <row r="906" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A906" s="27"/>
+      <c r="A906" s="22"/>
     </row>
     <row r="907" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A907" s="27"/>
+      <c r="A907" s="22"/>
     </row>
     <row r="908" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A908" s="27"/>
+      <c r="A908" s="22"/>
     </row>
     <row r="909" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A909" s="27"/>
+      <c r="A909" s="22"/>
     </row>
     <row r="910" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A910" s="27"/>
+      <c r="A910" s="22"/>
     </row>
     <row r="911" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A911" s="27"/>
+      <c r="A911" s="22"/>
     </row>
     <row r="912" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A912" s="27"/>
+      <c r="A912" s="22"/>
     </row>
     <row r="913" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A913" s="27"/>
+      <c r="A913" s="22"/>
     </row>
     <row r="914" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A914" s="27"/>
+      <c r="A914" s="22"/>
     </row>
     <row r="915" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A915" s="27"/>
+      <c r="A915" s="22"/>
     </row>
     <row r="916" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A916" s="27"/>
+      <c r="A916" s="22"/>
     </row>
     <row r="917" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A917" s="27"/>
+      <c r="A917" s="22"/>
     </row>
     <row r="918" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A918" s="27"/>
+      <c r="A918" s="22"/>
     </row>
     <row r="919" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A919" s="27"/>
+      <c r="A919" s="22"/>
     </row>
     <row r="920" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A920" s="27"/>
+      <c r="A920" s="22"/>
     </row>
     <row r="921" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A921" s="27"/>
+      <c r="A921" s="22"/>
     </row>
     <row r="922" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A922" s="27"/>
+      <c r="A922" s="22"/>
     </row>
     <row r="923" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A923" s="27"/>
+      <c r="A923" s="22"/>
     </row>
     <row r="924" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A924" s="27"/>
+      <c r="A924" s="22"/>
     </row>
     <row r="925" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A925" s="27"/>
+      <c r="A925" s="22"/>
     </row>
     <row r="926" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A926" s="27"/>
+      <c r="A926" s="22"/>
     </row>
     <row r="927" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A927" s="27"/>
+      <c r="A927" s="22"/>
     </row>
     <row r="928" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A928" s="27"/>
+      <c r="A928" s="22"/>
     </row>
     <row r="929" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A929" s="27"/>
+      <c r="A929" s="22"/>
     </row>
     <row r="930" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A930" s="27"/>
+      <c r="A930" s="22"/>
     </row>
     <row r="931" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A931" s="27"/>
+      <c r="A931" s="22"/>
     </row>
     <row r="932" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A932" s="27"/>
+      <c r="A932" s="22"/>
     </row>
     <row r="933" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A933" s="27"/>
+      <c r="A933" s="22"/>
     </row>
     <row r="934" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A934" s="27"/>
+      <c r="A934" s="22"/>
     </row>
     <row r="935" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A935" s="27"/>
+      <c r="A935" s="22"/>
     </row>
     <row r="936" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A936" s="27"/>
+      <c r="A936" s="22"/>
     </row>
     <row r="937" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A937" s="27"/>
+      <c r="A937" s="22"/>
     </row>
     <row r="938" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A938" s="27"/>
+      <c r="A938" s="22"/>
     </row>
     <row r="939" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A939" s="27"/>
+      <c r="A939" s="22"/>
     </row>
     <row r="940" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A940" s="27"/>
+      <c r="A940" s="22"/>
     </row>
     <row r="941" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A941" s="27"/>
+      <c r="A941" s="22"/>
     </row>
     <row r="942" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A942" s="27"/>
+      <c r="A942" s="22"/>
     </row>
     <row r="943" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A943" s="27"/>
+      <c r="A943" s="22"/>
     </row>
     <row r="944" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A944" s="27"/>
+      <c r="A944" s="22"/>
     </row>
     <row r="945" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A945" s="27"/>
+      <c r="A945" s="22"/>
     </row>
     <row r="946" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A946" s="27"/>
+      <c r="A946" s="22"/>
     </row>
     <row r="947" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A947" s="27"/>
+      <c r="A947" s="22"/>
     </row>
     <row r="948" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A948" s="27"/>
+      <c r="A948" s="22"/>
     </row>
     <row r="949" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A949" s="27"/>
+      <c r="A949" s="22"/>
     </row>
     <row r="950" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A950" s="27"/>
+      <c r="A950" s="22"/>
     </row>
     <row r="951" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A951" s="27"/>
+      <c r="A951" s="22"/>
     </row>
     <row r="952" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A952" s="27"/>
+      <c r="A952" s="22"/>
     </row>
     <row r="953" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A953" s="27"/>
+      <c r="A953" s="22"/>
     </row>
     <row r="954" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A954" s="27"/>
+      <c r="A954" s="22"/>
     </row>
     <row r="955" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A955" s="27"/>
+      <c r="A955" s="22"/>
     </row>
     <row r="956" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A956" s="27"/>
+      <c r="A956" s="22"/>
     </row>
     <row r="957" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A957" s="27"/>
+      <c r="A957" s="22"/>
     </row>
     <row r="958" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A958" s="27"/>
+      <c r="A958" s="22"/>
     </row>
     <row r="959" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A959" s="27"/>
+      <c r="A959" s="22"/>
     </row>
     <row r="960" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A960" s="27"/>
+      <c r="A960" s="22"/>
     </row>
     <row r="961" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A961" s="27"/>
+      <c r="A961" s="22"/>
     </row>
     <row r="962" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A962" s="27"/>
+      <c r="A962" s="22"/>
     </row>
     <row r="963" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A963" s="27"/>
+      <c r="A963" s="22"/>
     </row>
     <row r="964" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A964" s="27"/>
+      <c r="A964" s="22"/>
     </row>
     <row r="965" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A965" s="27"/>
+      <c r="A965" s="22"/>
     </row>
     <row r="966" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A966" s="27"/>
+      <c r="A966" s="22"/>
     </row>
     <row r="967" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A967" s="27"/>
+      <c r="A967" s="22"/>
     </row>
     <row r="968" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A968" s="27"/>
+      <c r="A968" s="22"/>
     </row>
     <row r="969" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A969" s="27"/>
+      <c r="A969" s="22"/>
     </row>
     <row r="970" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A970" s="27"/>
+      <c r="A970" s="22"/>
     </row>
     <row r="971" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A971" s="27"/>
+      <c r="A971" s="22"/>
     </row>
     <row r="972" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A972" s="27"/>
+      <c r="A972" s="22"/>
     </row>
     <row r="973" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A973" s="27"/>
+      <c r="A973" s="22"/>
     </row>
     <row r="974" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A974" s="27"/>
+      <c r="A974" s="22"/>
     </row>
     <row r="975" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A975" s="27"/>
+      <c r="A975" s="22"/>
     </row>
     <row r="976" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A976" s="27"/>
+      <c r="A976" s="22"/>
     </row>
     <row r="977" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A977" s="27"/>
+      <c r="A977" s="22"/>
     </row>
     <row r="978" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A978" s="27"/>
+      <c r="A978" s="22"/>
     </row>
     <row r="979" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A979" s="27"/>
+      <c r="A979" s="22"/>
     </row>
     <row r="980" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A980" s="27"/>
+      <c r="A980" s="22"/>
     </row>
     <row r="981" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A981" s="28"/>
-      <c r="B981" s="29"/>
-      <c r="C981" s="29"/>
-      <c r="D981" s="29"/>
-      <c r="E981" s="29"/>
-      <c r="F981" s="29"/>
-      <c r="G981" s="29"/>
-      <c r="H981" s="29"/>
-      <c r="I981" s="29"/>
-      <c r="J981" s="29"/>
-      <c r="K981" s="29"/>
-      <c r="L981" s="29"/>
-      <c r="M981" s="29"/>
-      <c r="N981" s="29"/>
-      <c r="O981" s="29"/>
+      <c r="A981" s="23"/>
+      <c r="B981" s="24"/>
+      <c r="C981" s="24"/>
+      <c r="D981" s="24"/>
+      <c r="E981" s="24"/>
+      <c r="F981" s="24"/>
+      <c r="G981" s="24"/>
+      <c r="H981" s="24"/>
+      <c r="I981" s="24"/>
+      <c r="J981" s="24"/>
+      <c r="K981" s="24"/>
+      <c r="L981" s="24"/>
+      <c r="M981" s="24"/>
+      <c r="N981" s="24"/>
+      <c r="O981" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5879,2064 +5888,2064 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" style="30" customWidth="1"/>
-    <col min="3" max="5" width="16.08984375" style="31" customWidth="1"/>
-    <col min="6" max="7" width="9.08984375" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="14.81640625" style="31"/>
+    <col min="1" max="1" width="16.08984375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" style="25" customWidth="1"/>
+    <col min="3" max="5" width="16.08984375" style="26" customWidth="1"/>
+    <col min="6" max="7" width="9.08984375" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="14.81640625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="C3" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="34"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B10" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B11" s="27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B13" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B14" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B15" s="27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B17" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B18" s="27" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B19" s="27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B20" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B21" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B22" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B23" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B24" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B25" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B26" s="27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B27" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B28" s="27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B29" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B30" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B31" s="27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B32" s="27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B33" s="27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B34" s="27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B35" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B36" s="27" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B37" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="32" t="s">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B38" s="27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32" t="s">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B39" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="32" t="s">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B40" s="27" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="32" t="s">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B41" s="27" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B42" s="27" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32" t="s">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B43" s="27" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B44" s="27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="32" t="s">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B45" s="27" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="32" t="s">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B46" s="27" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="32" t="s">
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B47" s="27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="32" t="s">
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B48" s="27" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="32" t="s">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B49" s="27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="32" t="s">
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B50" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="32" t="s">
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B51" s="27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="32" t="s">
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B52" s="27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="32" t="s">
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B53" s="27" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="32" t="s">
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B54" s="27" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="32" t="s">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B55" s="27" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="32" t="s">
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B56" s="27" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="32" t="s">
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B57" s="27" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="32" t="s">
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B58" s="27" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="32" t="s">
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B59" s="27" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="32" t="s">
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B60" s="27" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="32" t="s">
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B61" s="27" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="32" t="s">
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B62" s="27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="32" t="s">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B63" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="32" t="s">
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B64" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="32" t="s">
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B65" s="27" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="32" t="s">
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B66" s="27" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="32" t="s">
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B67" s="27" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="32" t="s">
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B68" s="27" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="32" t="s">
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B69" s="27" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="32" t="s">
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B70" s="27" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="32" t="s">
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B71" s="27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="32" t="s">
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B72" s="27" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="32" t="s">
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B73" s="27" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="32" t="s">
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B74" s="27" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="32" t="s">
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="B74" s="32" t="s">
+      <c r="B75" s="27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="32" t="s">
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B76" s="27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="32" t="s">
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B77" s="27" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="32" t="s">
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B78" s="27" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="32" t="s">
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B79" s="27" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="32" t="s">
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="B79" s="32" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="27" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="32" t="s">
+      <c r="B81" s="27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="32" t="s">
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B82" s="27" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="32" t="s">
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B83" s="27" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="32" t="s">
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="B84" s="27" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="32" t="s">
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="B85" s="27" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="32" t="s">
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B86" s="27" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="32" t="s">
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B87" s="27" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="32" t="s">
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B88" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="32" t="s">
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B89" s="27" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="32" t="s">
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B90" s="27" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="32" t="s">
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B91" s="27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="32" t="s">
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B92" s="27" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="32" t="s">
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B93" s="27" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="32" t="s">
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B94" s="27" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="32" t="s">
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B95" s="27" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="32" t="s">
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="B95" s="32" t="s">
+      <c r="B96" s="27" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="32" t="s">
+    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="B96" s="32" t="s">
+      <c r="B97" s="27" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="32" t="s">
+    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B97" s="32" t="s">
+      <c r="B98" s="27" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="32" t="s">
+    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="B98" s="32" t="s">
+      <c r="B99" s="27" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="32" t="s">
+    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="B99" s="32" t="s">
+      <c r="B100" s="27" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="32" t="s">
+    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="B100" s="32" t="s">
+      <c r="B101" s="27" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="32" t="s">
+    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B102" s="27" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="32" t="s">
+    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B103" s="27" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="32" t="s">
+    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B104" s="27" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="32" t="s">
+    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="B104" s="32" t="s">
+      <c r="B105" s="27" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="32" t="s">
+    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B105" s="32" t="s">
+      <c r="B106" s="27" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="32" t="s">
+    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="B107" s="27" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="32" t="s">
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B108" s="27" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="32" t="s">
+    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B109" s="27" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="32" t="s">
+    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B110" s="27" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="32" t="s">
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B111" s="27" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="32" t="s">
+    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="B112" s="27" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="32" t="s">
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B113" s="27" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="32" t="s">
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="B113" s="32" t="s">
+      <c r="B114" s="27" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="32" t="s">
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B115" s="27" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="32" t="s">
+    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B116" s="27" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="32" t="s">
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B117" s="27" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="32" t="s">
+    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="B117" s="32" t="s">
+      <c r="B118" s="27" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="32" t="s">
+    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="B119" s="27" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="32" t="s">
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="B119" s="32" t="s">
+      <c r="B120" s="27" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="32" t="s">
+    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B120" s="32" t="s">
+      <c r="B121" s="27" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="32" t="s">
+    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="B121" s="32" t="s">
+      <c r="B122" s="27" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="32" t="s">
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="B123" s="27" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="32" t="s">
+    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="B123" s="32" t="s">
+      <c r="B124" s="27" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="32" t="s">
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="B124" s="32" t="s">
+      <c r="B125" s="27" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="32" t="s">
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="B125" s="32" t="s">
+      <c r="B126" s="27" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="32" t="s">
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="B126" s="32" t="s">
+      <c r="B127" s="27" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="32" t="s">
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="B128" s="27" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="32" t="s">
+    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="B128" s="32" t="s">
+      <c r="B129" s="27" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="32" t="s">
+    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="B129" s="32" t="s">
+      <c r="B130" s="27" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="32" t="s">
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="B130" s="32" t="s">
+      <c r="B131" s="27" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="32" t="s">
+    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="32" t="s">
+      <c r="B132" s="27" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="32" t="s">
+    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="B132" s="32" t="s">
+      <c r="B133" s="27" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="32" t="s">
+    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="B134" s="27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="32" t="s">
+    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="B134" s="32" t="s">
+      <c r="B135" s="27" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="32" t="s">
+    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="B135" s="32" t="s">
+      <c r="B136" s="27" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="32" t="s">
+    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="B136" s="32" t="s">
+      <c r="B137" s="27" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="32" t="s">
+    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="B137" s="32" t="s">
+      <c r="B138" s="27" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="32" t="s">
+    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="B138" s="32" t="s">
+      <c r="B139" s="27" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="32" t="s">
+    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="B139" s="32" t="s">
+      <c r="B140" s="27" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="32" t="s">
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="B140" s="32" t="s">
+      <c r="B141" s="27" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="32" t="s">
+    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="B141" s="32" t="s">
+      <c r="B142" s="27" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="32" t="s">
+    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="B142" s="32" t="s">
+      <c r="B143" s="27" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="32" t="s">
+    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="B143" s="32" t="s">
+      <c r="B144" s="27" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="32" t="s">
+    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="B144" s="32" t="s">
+      <c r="B145" s="27" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="32" t="s">
+    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B146" s="27" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="32" t="s">
+    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="B146" s="32" t="s">
+      <c r="B147" s="27" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="32" t="s">
+    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="B147" s="32" t="s">
+      <c r="B148" s="27" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="32" t="s">
+    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="B148" s="32" t="s">
+      <c r="B149" s="27" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="32" t="s">
+    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="B149" s="32" t="s">
+      <c r="B150" s="27" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="32" t="s">
+    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B151" s="27" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="32" t="s">
+    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="B151" s="32" t="s">
+      <c r="B152" s="27" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="32" t="s">
+    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="B152" s="32" t="s">
+      <c r="B153" s="27" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="32" t="s">
+    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="B153" s="32" t="s">
+      <c r="B154" s="27" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="32" t="s">
+    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B155" s="27" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="32" t="s">
+    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="B156" s="27" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="32" t="s">
+    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="B157" s="27" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="32" t="s">
+    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="B157" s="32" t="s">
+      <c r="B158" s="27" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="32" t="s">
+    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="B158" s="32" t="s">
+      <c r="B159" s="27" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="32" t="s">
+    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="B160" s="27" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="32" t="s">
+    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="B160" s="32" t="s">
+      <c r="B161" s="27" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="32" t="s">
+    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="B161" s="32" t="s">
+      <c r="B162" s="27" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="32" t="s">
+    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="B162" s="32" t="s">
+      <c r="B163" s="27" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="32" t="s">
+    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B164" s="27" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="32" t="s">
+    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="B165" s="27" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="32" t="s">
+    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="B165" s="32" t="s">
+      <c r="B166" s="27" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="32" t="s">
+    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="B166" s="32" t="s">
+      <c r="B167" s="27" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="32" t="s">
+    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="B167" s="32" t="s">
+      <c r="B168" s="27" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="32" t="s">
+    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="B168" s="32" t="s">
+      <c r="B169" s="27" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="32" t="s">
+    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="B169" s="32" t="s">
+      <c r="B170" s="27" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="32" t="s">
+    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="B170" s="32" t="s">
+      <c r="B171" s="27" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="32" t="s">
+    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="B171" s="32" t="s">
+      <c r="B172" s="27" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="32" t="s">
+    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="B172" s="32" t="s">
+      <c r="B173" s="27" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="32" t="s">
+    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="B173" s="32" t="s">
+      <c r="B174" s="27" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="32" t="s">
+    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="B174" s="32" t="s">
+      <c r="B175" s="27" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="32" t="s">
+    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="B175" s="32" t="s">
+      <c r="B176" s="27" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="32" t="s">
+    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="B176" s="32" t="s">
+      <c r="B177" s="27" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="32" t="s">
+    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="B177" s="32" t="s">
+      <c r="B178" s="27" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="32" t="s">
+    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="B178" s="32" t="s">
+      <c r="B179" s="27" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="32" t="s">
+    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="B179" s="32" t="s">
+      <c r="B180" s="27" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="32" t="s">
+    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="B180" s="32" t="s">
+      <c r="B181" s="27" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="32" t="s">
+    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="B181" s="32" t="s">
+      <c r="B182" s="27" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="32" t="s">
+    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="B182" s="32" t="s">
+      <c r="B183" s="27" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="32" t="s">
+    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="B183" s="32" t="s">
+      <c r="B184" s="27" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="32" t="s">
+    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="B184" s="32" t="s">
+      <c r="B185" s="27" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="32" t="s">
+    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="B185" s="32" t="s">
+      <c r="B186" s="27" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="32" t="s">
+    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="B186" s="32" t="s">
+      <c r="B187" s="27" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="32" t="s">
+    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="B187" s="32" t="s">
+      <c r="B188" s="27" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="32" t="s">
+    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="B188" s="32" t="s">
+      <c r="B189" s="27" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="32" t="s">
+    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="B189" s="32" t="s">
+      <c r="B190" s="27" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="32" t="s">
+    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="B190" s="32" t="s">
+      <c r="B191" s="27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="32" t="s">
+    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="B191" s="32" t="s">
+      <c r="B192" s="27" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="32" t="s">
+    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="B192" s="32" t="s">
+      <c r="B193" s="27" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="32" t="s">
+    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="B193" s="32" t="s">
+      <c r="B194" s="27" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="32" t="s">
+    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="B194" s="32" t="s">
+      <c r="B195" s="27" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="32" t="s">
+    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="B195" s="32" t="s">
+      <c r="B196" s="27" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="32" t="s">
+    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="B197" s="27" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="32" t="s">
+    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="B197" s="32" t="s">
+      <c r="B198" s="27" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="32" t="s">
+    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="B198" s="32" t="s">
+      <c r="B199" s="27" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="32" t="s">
+    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="B199" s="32" t="s">
+      <c r="B200" s="27" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="32" t="s">
+    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="B200" s="32" t="s">
+      <c r="B201" s="27" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="32" t="s">
+    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="B201" s="32" t="s">
+      <c r="B202" s="27" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="32" t="s">
+    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="B202" s="32" t="s">
+      <c r="B203" s="27" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="32" t="s">
+    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="B203" s="32" t="s">
+      <c r="B204" s="27" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="32" t="s">
+    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="B204" s="32" t="s">
+      <c r="B205" s="27" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="32" t="s">
+    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="B205" s="32" t="s">
+      <c r="B206" s="27" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="32" t="s">
+    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="B206" s="32" t="s">
+      <c r="B207" s="27" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="32" t="s">
+    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="B207" s="32" t="s">
+      <c r="B208" s="27" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="32" t="s">
+    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="B208" s="32" t="s">
+      <c r="B209" s="27" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="32" t="s">
+    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="B209" s="32" t="s">
+      <c r="B210" s="27" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="32" t="s">
+    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="B210" s="32" t="s">
+      <c r="B211" s="27" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="32" t="s">
+    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="27" t="s">
         <v>505</v>
       </c>
-      <c r="B211" s="32" t="s">
+      <c r="B212" s="27" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="32" t="s">
+    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="B212" s="32" t="s">
+      <c r="B213" s="27" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="32" t="s">
+    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="B213" s="32" t="s">
+      <c r="B214" s="27" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="32" t="s">
+    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="B214" s="32" t="s">
+      <c r="B215" s="27" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="32" t="s">
+    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="B215" s="32" t="s">
+      <c r="B216" s="27" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="32" t="s">
+    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="B216" s="32" t="s">
+      <c r="B217" s="27" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="32" t="s">
+    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="B217" s="32" t="s">
+      <c r="B218" s="27" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="32" t="s">
+    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="B218" s="32" t="s">
+      <c r="B219" s="27" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="32" t="s">
+    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="B219" s="32" t="s">
+      <c r="B220" s="27" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="32" t="s">
+    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="B220" s="32" t="s">
+      <c r="B221" s="27" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="32" t="s">
+    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="B221" s="32" t="s">
+      <c r="B222" s="27" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="32" t="s">
+    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="B222" s="32" t="s">
+      <c r="B223" s="27" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="32" t="s">
+    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="B223" s="32" t="s">
+      <c r="B224" s="27" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="32" t="s">
+    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="B224" s="32" t="s">
+      <c r="B225" s="27" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="32" t="s">
+    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="27" t="s">
         <v>533</v>
       </c>
-      <c r="B225" s="32" t="s">
+      <c r="B226" s="27" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="32" t="s">
+    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="B226" s="32" t="s">
+      <c r="B227" s="27" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="32" t="s">
+    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="B227" s="32" t="s">
+      <c r="B228" s="27" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="32" t="s">
+    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="27" t="s">
         <v>539</v>
       </c>
-      <c r="B228" s="32" t="s">
+      <c r="B229" s="27" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="32" t="s">
+    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="27" t="s">
         <v>541</v>
       </c>
-      <c r="B229" s="32" t="s">
+      <c r="B230" s="27" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="32" t="s">
+    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="B230" s="32" t="s">
+      <c r="B231" s="27" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="32" t="s">
+    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="B231" s="32" t="s">
+      <c r="B232" s="27" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="32" t="s">
+    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="B232" s="32" t="s">
+      <c r="B233" s="27" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="32" t="s">
+    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="B233" s="32" t="s">
+      <c r="B234" s="27" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="32" t="s">
+    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="B234" s="32" t="s">
+      <c r="B235" s="27" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="32" t="s">
+    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="B235" s="32" t="s">
+      <c r="B236" s="27" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="32" t="s">
+    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="B236" s="32" t="s">
+      <c r="B237" s="27" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="32" t="s">
+    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="B237" s="32" t="s">
+      <c r="B238" s="27" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="32" t="s">
+    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="B238" s="32" t="s">
+      <c r="B239" s="27" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="32" t="s">
+    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="B239" s="32" t="s">
+      <c r="B240" s="27" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="32" t="s">
+    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="B240" s="32" t="s">
+      <c r="B241" s="27" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="32" t="s">
+    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="B241" s="32" t="s">
+      <c r="B242" s="27" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="32" t="s">
+    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="B242" s="32" t="s">
+      <c r="B243" s="27" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="32" t="s">
+    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="B243" s="32" t="s">
+      <c r="B244" s="27" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="32" t="s">
+    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="B244" s="32" t="s">
+      <c r="B245" s="27" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="32" t="s">
+    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="B245" s="32" t="s">
+      <c r="B246" s="27" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="32" t="s">
+    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="B246" s="32" t="s">
+      <c r="B247" s="27" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="32" t="s">
+    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="B247" s="32" t="s">
+      <c r="B248" s="27" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="32" t="s">
+    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="B248" s="32" t="s">
+      <c r="B249" s="27" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="32" t="s">
+    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="B249" s="32" t="s">
+      <c r="B250" s="27" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="32" t="s">
+    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="B250" s="32" t="s">
+      <c r="B251" s="27" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="32" t="s">
+    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="B251" s="32" t="s">
+      <c r="B252" s="27" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="32" t="s">
+    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="B252" s="32" t="s">
+      <c r="B253" s="27" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="32" t="s">
+    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="B253" s="32" t="s">
+      <c r="B254" s="27" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="32" t="s">
-        <v>591</v>
-      </c>
-      <c r="B254" s="32" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -7967,21 +7976,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+    </row>
+    <row r="4" spans="1:1" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
         <v>593</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-    </row>
-    <row r="4" spans="1:1" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
-        <v>595</v>
       </c>
     </row>
   </sheetData>
